--- a/Template/Export/FormSariIliHospDeath_17.xlsx
+++ b/Template/Export/FormSariIliHospDeath_17.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
@@ -187,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -527,11 +522,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -619,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,7 +840,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
